--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\18 - Validaties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF910AF-BEA1-4AF9-83D9-BF49027E5CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829CD4E-1C15-4CC9-B188-5717DA50C46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -2124,7 +2124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2140,6 +2140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,7 +2191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2303,482 +2309,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="170">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -25494,247 +25033,247 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C169:F197 G167:H197 D198:D251 E198:E250 C198:C238 F198:H251 G252:H271 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J167:J271 L167:L271 L152 N152 N167:N271 P167:P271 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152">
-    <cfRule type="containsText" dxfId="169" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="168" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="167" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C271">
-    <cfRule type="containsText" dxfId="165" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:F168 D252:F271">
-    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251 E251">
-    <cfRule type="containsText" dxfId="163" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="containsText" dxfId="162" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="containsText" dxfId="161" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
-    <cfRule type="containsText" dxfId="160" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="159" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="containsText" dxfId="158" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="156" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="containsText" dxfId="155" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="containsText" dxfId="154" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="containsText" dxfId="153" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="containsText" dxfId="152" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="151" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="150" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="149" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="148" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="147" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="146" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="145" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="144" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="143" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="142" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="141" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="137" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q167:Q271">
-    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I167:I271">
-    <cfRule type="containsText" dxfId="121" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="120" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="119" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K167:K271 K152">
-    <cfRule type="containsText" dxfId="118" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="117" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="116" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M167:M271">
-    <cfRule type="containsText" dxfId="115" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="114" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="113" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:O271 O152 O59:O126 O2:O48">
-    <cfRule type="containsText" dxfId="112" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="111" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="110" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="105" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V167:V271 T167:T271">
-    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U167:U271">
-    <cfRule type="containsText" dxfId="99" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S167:S271">
-    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R167:R271">
-    <cfRule type="containsText" dxfId="97" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R167)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29735,147 +29274,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O48">
-    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="94" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S48">
-    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="91" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="90" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48">
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29 A1:E27 A30:F48 G1:V1 G2:H48 J2:J48 L2:L48 N2:N48 P2:P48 R2:R48 T2:T48 V2:V48">
-    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="84" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="83" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="82" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="81" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="80" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="78" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="72" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K48">
-    <cfRule type="containsText" dxfId="70" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48">
-    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29904,9 +29443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BE904-3D15-4F6E-B5B9-2AD212EB1E09}">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30055,7 +29594,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="49" t="s">
         <v>521</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -30189,7 +29728,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="49" t="s">
         <v>522</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -30257,7 +29796,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="49" t="s">
         <v>523</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -30325,7 +29864,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="49" t="s">
         <v>524</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -30393,7 +29932,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="31" t="s">
         <v>525</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -37598,62 +37137,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A96:H96 A2:H69">
-    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S95 S2:S69">
-    <cfRule type="containsText" dxfId="55" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U69 U95">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1 G1:V1">
-    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204 A111:A178">
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J69 L2:L69 N2:N69 J95 L95 N95 P95 P2:P69 R2:R69 R95 T95 T2:T69 V2:V69 V95">
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q69 Q95">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I69 I95">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K69 K95">
-    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M69 M95">
-    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O95 O2:O69">
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45905,7 +45444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45918,7 +45457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B069ABF-7FCE-4B0E-A994-BD51049E73F6}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
@@ -48044,12 +47583,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829CD4E-1C15-4CC9-B188-5717DA50C46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D51B04-1AB9-4474-BC0D-181A1097BF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -29445,7 +29445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30066,7 +30066,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="31" t="s">
         <v>528</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -30200,7 +30200,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="49" t="s">
         <v>526</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -30268,7 +30268,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="49" t="s">
         <v>527</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -30336,7 +30336,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="49" t="s">
         <v>529</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -30404,7 +30404,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="49" t="s">
         <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -30538,7 +30538,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="49" t="s">
         <v>531</v>
       </c>
       <c r="B17" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D51B04-1AB9-4474-BC0D-181A1097BF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583555D6-FF69-4FA4-89B3-BD9AF65E8F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29445,7 +29445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30000,7 +30000,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="31" t="s">
         <v>569</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -30134,7 +30134,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="31" t="s">
         <v>561</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -30200,7 +30200,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="31" t="s">
         <v>526</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -30472,7 +30472,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="49" t="s">
         <v>570</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -30606,7 +30606,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="49" t="s">
         <v>532</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -37202,6 +37202,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583555D6-FF69-4FA4-89B3-BD9AF65E8F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C80C9-6CB4-4B3F-9594-E698056FB69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2124,7 +2124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2146,6 +2146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2310,6 +2316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29445,7 +29454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30268,7 +30277,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="31" t="s">
         <v>527</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -30336,7 +30345,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="31" t="s">
         <v>529</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -30404,7 +30413,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -30472,7 +30481,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="31" t="s">
         <v>570</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -30674,7 +30683,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="49" t="s">
         <v>533</v>
       </c>
       <c r="B19" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C80C9-6CB4-4B3F-9594-E698056FB69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CDE8B-6BBA-423D-9563-49800CCD5BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29454,7 +29454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30547,7 +30547,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="31" t="s">
         <v>531</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -30615,7 +30615,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="31" t="s">
         <v>532</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -30683,7 +30683,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="31" t="s">
         <v>533</v>
       </c>
       <c r="B19" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CDE8B-6BBA-423D-9563-49800CCD5BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D410B7A3-6EF6-4C0D-B4D2-F7BA2AC399CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29454,7 +29454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30819,7 +30819,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="31" t="s">
         <v>535</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -30887,7 +30887,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="31" t="s">
         <v>562</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="49" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -31021,7 +31021,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="49" t="s">
         <v>537</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -31089,7 +31089,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="49" t="s">
         <v>538</v>
       </c>
       <c r="B25" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D410B7A3-6EF6-4C0D-B4D2-F7BA2AC399CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91DB24-56D4-4E7C-8964-A5F26C80FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2320,6 +2320,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29453,14 +29456,14 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="65.77734375" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
     <col min="3" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="8" width="12.77734375" customWidth="1"/>
@@ -30953,7 +30956,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="31" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -31021,10 +31024,10 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -31089,7 +31092,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="31" t="s">
         <v>538</v>
       </c>
       <c r="B25" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91DB24-56D4-4E7C-8964-A5F26C80FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E71B69-184B-46B3-80E4-DB8DF5496587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29456,8 +29456,8 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31228,7 +31228,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="31" t="s">
         <v>563</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -31294,7 +31294,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="31" t="s">
         <v>564</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -31360,7 +31360,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="31" t="s">
         <v>540</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -31428,7 +31428,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="31" t="s">
         <v>541</v>
       </c>
       <c r="B30" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E71B69-184B-46B3-80E4-DB8DF5496587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657BE16-8C09-4094-A986-4E71E42B3FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29456,8 +29456,8 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31564,7 +31564,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="31" t="s">
         <v>565</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -31630,7 +31630,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="49" t="s">
         <v>566</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -31696,7 +31696,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="49" t="s">
         <v>543</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -31764,7 +31764,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="49" t="s">
         <v>544</v>
       </c>
       <c r="B35" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5657BE16-8C09-4094-A986-4E71E42B3FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FDDF88-963F-4324-933E-E2B97A64B376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29456,8 +29456,8 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31630,7 +31630,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="31" t="s">
         <v>566</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -31696,7 +31696,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="31" t="s">
         <v>543</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -31764,7 +31764,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="31" t="s">
         <v>544</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -31900,7 +31900,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="31" t="s">
         <v>567</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -31966,7 +31966,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="31" t="s">
         <v>568</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -32032,7 +32032,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="31" t="s">
         <v>546</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -32100,7 +32100,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="31" t="s">
         <v>547</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -32168,7 +32168,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="49" t="s">
         <v>548</v>
       </c>
       <c r="B41" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FDDF88-963F-4324-933E-E2B97A64B376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7ECE9D-A185-46DD-B794-41EDE3205C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29457,7 +29457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32168,7 +32168,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="31" t="s">
         <v>548</v>
       </c>
       <c r="B41" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7ECE9D-A185-46DD-B794-41EDE3205C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF8752-1C27-4ACE-A2F8-052ADC06AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29456,8 +29456,8 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32304,7 +32304,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="31" t="s">
         <v>550</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -32372,7 +32372,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="31" t="s">
         <v>571</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -32438,7 +32438,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="31" t="s">
         <v>551</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -32506,7 +32506,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="31" t="s">
         <v>552</v>
       </c>
       <c r="B46" s="2" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF8752-1C27-4ACE-A2F8-052ADC06AF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D101D-32E7-4B9A-B027-858CA5142AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13742" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13874" uniqueCount="672">
   <si>
     <t>ID</t>
   </si>
@@ -2057,12 +2057,59 @@
   <si>
     <t>Definitief MR</t>
   </si>
+  <si>
+    <t>Kijken of alle benodigde bestanden (vooral manifest en manifest-ow) aanwezig zijn</t>
+  </si>
+  <si>
+    <t>TPOD2010</t>
+  </si>
+  <si>
+    <t>het wId van de Regeltekst in OW moet verwijzen naar een bestaande wId van een Artikel of Lid in OP</t>
+  </si>
+  <si>
+    <t>het wId van de Regeling  in OW moet verwijzen naar een bestaande work van een regeling in OP</t>
+  </si>
+  <si>
+    <t>het FRBRWork van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
+  </si>
+  <si>
+    <t>het FRBRExpression van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
+  </si>
+  <si>
+    <t>het id van FormeleDivisie in OW moet verwijzen naar een bestaande id van een FormeleDivisie in OP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPOD2000</t>
+    </r>
+  </si>
+  <si>
+    <t>TPOD2020</t>
+  </si>
+  <si>
+    <t>TPOD2030</t>
+  </si>
+  <si>
+    <t>TPOD2040</t>
+  </si>
+  <si>
+    <t>TPOD2050</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2123,6 +2170,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2156,7 +2210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2192,12 +2246,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2323,6 +2390,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29453,11 +29535,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BE904-3D15-4F6E-B5B9-2AD212EB1E09}">
-  <dimension ref="A1:V219"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36742,10 +36824,10 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="53" t="s">
         <v>642</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -36809,69 +36891,451 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="Q110" s="43"/>
-      <c r="R110" s="43"/>
-    </row>
-    <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="Q111" s="43"/>
-      <c r="R111" s="43"/>
-    </row>
-    <row r="112" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="Q112" s="43"/>
-      <c r="R112" s="43"/>
-    </row>
-    <row r="113" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="Q113" s="43"/>
-      <c r="R113" s="43"/>
-    </row>
-    <row r="114" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-    </row>
-    <row r="115" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-    </row>
-    <row r="116" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N110" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R110" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T110" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U110" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V110" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N111" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R111" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U111" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V111" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N112" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R112" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T112" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U112" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V112" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N113" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R113" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U113" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V113" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N114" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R114" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U114" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V114" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="B115" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N115" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R115" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U115" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V115" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
     </row>
-    <row r="117" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="45"/>
     </row>
-    <row r="118" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
     </row>
-    <row r="119" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
     </row>
-    <row r="120" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="45"/>
     </row>
-    <row r="121" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="45"/>
     </row>
-    <row r="122" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="45"/>
     </row>
-    <row r="123" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="45"/>
     </row>
-    <row r="124" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
     </row>
-    <row r="125" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
     </row>
-    <row r="126" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
     </row>
-    <row r="127" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
     </row>
-    <row r="128" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
     </row>
     <row r="129" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
@@ -37046,34 +37510,34 @@
       <c r="A185" s="45"/>
     </row>
     <row r="186" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A186" s="45"/>
+      <c r="A186" s="46"/>
     </row>
     <row r="187" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" s="45"/>
     </row>
     <row r="188" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A188" s="46"/>
-    </row>
-    <row r="189" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="45"/>
+      <c r="A188" s="45"/>
+    </row>
+    <row r="189" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="47"/>
     </row>
     <row r="190" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" s="45"/>
     </row>
-    <row r="191" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="47"/>
+    <row r="191" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A191" s="45"/>
     </row>
     <row r="192" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A192" s="45"/>
+      <c r="A192" s="48"/>
     </row>
     <row r="193" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A193" s="45"/>
+      <c r="A193" s="48"/>
     </row>
     <row r="194" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
+      <c r="A194" s="45"/>
     </row>
     <row r="195" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
+      <c r="A195" s="45"/>
     </row>
     <row r="196" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" s="45"/>
@@ -37096,20 +37560,20 @@
     <row r="202" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A202" s="45"/>
     </row>
-    <row r="203" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A203" s="45"/>
-    </row>
-    <row r="204" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A204" s="45"/>
-    </row>
-    <row r="205" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="42"/>
+    <row r="203" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="42"/>
+    </row>
+    <row r="204" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="42"/>
+    </row>
+    <row r="205" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A205" s="45"/>
     </row>
     <row r="206" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A206" s="42"/>
     </row>
-    <row r="207" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A207" s="45"/>
+    <row r="207" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="42"/>
     </row>
     <row r="208" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A208" s="42"/>
@@ -37126,11 +37590,11 @@
     <row r="212" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A212" s="42"/>
     </row>
-    <row r="213" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="42"/>
-    </row>
-    <row r="214" spans="1:1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="42"/>
+    <row r="213" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A213" s="44"/>
+    </row>
+    <row r="214" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A214" s="44"/>
     </row>
     <row r="215" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A215" s="44"/>
@@ -37138,14 +37602,8 @@
     <row r="216" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A216" s="44"/>
     </row>
-    <row r="217" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A217" s="44"/>
-    </row>
-    <row r="218" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A218" s="44"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="43"/>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A96:H96 A2:H69">
@@ -37173,9 +37631,9 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A204 A111:A178">
+  <conditionalFormatting sqref="A202 A116:A176">
     <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A111)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J69 L2:L69 N2:N69 J95 L95 N95 P95 P2:P69 R2:R69 R95 T95 T2:T69 V2:V69 V95">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D101D-32E7-4B9A-B027-858CA5142AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AD4E24-C960-40A3-A9C7-7806F23D0EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,7 +2264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2385,9 +2385,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2397,14 +2394,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29538,8 +29539,8 @@
   <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29756,7 +29757,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="56" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -30498,7 +30499,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="56" t="s">
         <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -30836,7 +30837,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="56" t="s">
         <v>534</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -31109,7 +31110,7 @@
       <c r="A24" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -31242,7 +31243,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="56" t="s">
         <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -31578,7 +31579,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="56" t="s">
         <v>542</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -31914,7 +31915,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="56" t="s">
         <v>545</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -32318,7 +32319,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="56" t="s">
         <v>549</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -36076,7 +36077,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="55" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -36144,7 +36145,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="56" t="s">
         <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -36824,10 +36825,10 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="52" t="s">
         <v>642</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -36892,10 +36893,10 @@
       </c>
     </row>
     <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="53" t="s">
         <v>662</v>
       </c>
       <c r="C110" s="32" t="s">
@@ -37235,7 +37236,7 @@
       <c r="A115" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="54" t="s">
         <v>660</v>
       </c>
       <c r="C115" s="32" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AD4E24-C960-40A3-A9C7-7806F23D0EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790B272-0BD3-4B52-B011-52B2028141B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2264,7 +2264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2405,6 +2405,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29539,8 +29542,8 @@
   <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36961,7 +36964,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="58" t="s">
         <v>661</v>
       </c>
       <c r="B111" s="36" t="s">
@@ -37029,7 +37032,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="58" t="s">
         <v>668</v>
       </c>
       <c r="B112" s="36" t="s">
@@ -37097,7 +37100,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="58" t="s">
         <v>669</v>
       </c>
       <c r="B113" s="36" t="s">
@@ -37165,7 +37168,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="58" t="s">
         <v>670</v>
       </c>
       <c r="B114" s="36" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790B272-0BD3-4B52-B011-52B2028141B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C81AB-8B39-4D19-8C0D-B021BC14C1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2200,6 +2200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2264,7 +2270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2385,6 +2391,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2400,8 +2409,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29542,17 +29551,19 @@
   <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="8" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
     <col min="9" max="15" width="9.33203125" style="20" customWidth="1"/>
     <col min="16" max="22" width="9.33203125" customWidth="1"/>
   </cols>
@@ -29760,7 +29771,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -30502,7 +30513,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -30840,7 +30851,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>534</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -31113,7 +31124,7 @@
       <c r="A24" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -31246,7 +31257,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -31582,7 +31593,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>542</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -31918,7 +31929,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>545</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -32322,7 +32333,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="57" t="s">
         <v>549</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -33330,7 +33341,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="31" t="s">
         <v>558</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -35740,7 +35751,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -35876,7 +35887,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="50" t="s">
         <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -36080,7 +36091,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -36148,7 +36159,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="57" t="s">
         <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -36828,10 +36839,10 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="53" t="s">
         <v>642</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -36896,10 +36907,10 @@
       </c>
     </row>
     <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="58" t="s">
         <v>667</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="54" t="s">
         <v>662</v>
       </c>
       <c r="C110" s="32" t="s">
@@ -36964,7 +36975,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="58" t="s">
+      <c r="A111" s="59" t="s">
         <v>661</v>
       </c>
       <c r="B111" s="36" t="s">
@@ -37032,7 +37043,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="58" t="s">
+      <c r="A112" s="59" t="s">
         <v>668</v>
       </c>
       <c r="B112" s="36" t="s">
@@ -37100,7 +37111,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="58" t="s">
+      <c r="A113" s="59" t="s">
         <v>669</v>
       </c>
       <c r="B113" s="36" t="s">
@@ -37168,7 +37179,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="58" t="s">
+      <c r="A114" s="59" t="s">
         <v>670</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -37236,10 +37247,10 @@
       </c>
     </row>
     <row r="115" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="55" t="s">
         <v>660</v>
       </c>
       <c r="C115" s="32" t="s">

--- a/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/0.98-3-Validatie-_en_conformiteitsregels_TPOD/documenten/Validatie-en-Conformiteitsregels Totaal v0.9 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\0.98-3-Validatie-_en_conformiteitsregels_TPOD\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C81AB-8B39-4D19-8C0D-B021BC14C1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E1BF25-6B18-4A91-B580-ED742E13826B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13874" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13918" uniqueCount="677">
   <si>
     <t>ID</t>
   </si>
@@ -2104,12 +2104,56 @@
   <si>
     <t>TPOD2050</t>
   </si>
+  <si>
+    <t>Ieder OwObject heeft minstens een OwObject dat ernaar verwijst.</t>
+  </si>
+  <si>
+    <t>TPOD2060</t>
+  </si>
+  <si>
+    <t>TPOD2070</t>
+  </si>
+  <si>
+    <t>Als een verwijzing naar een Lid is gemaakt mag er geen verwijzing meer gemaakt worden naar het artikel dat boven dit Lid hangt. (RegeltekstID alleen op Lid-niveau of alleen op Artikel-niveau.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Als de activiteit een bepaalde regeltekstID heeft dan moet deze overeenkomen met de ID die je via de logische relaties vindt (regeltekst naar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> juridische regel (regel voor iedereen) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>naar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> activiteitaanduiding).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2177,8 +2221,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,6 +2268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,9 +2459,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2417,6 +2476,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29550,9 +29612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BE904-3D15-4F6E-B5B9-2AD212EB1E09}">
   <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29771,7 +29833,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>560</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -30513,7 +30575,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -30851,7 +30913,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>534</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -31257,7 +31319,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -31593,7 +31655,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="56" t="s">
         <v>542</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -31929,7 +31991,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>545</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -32333,7 +32395,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>549</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -36091,7 +36153,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="55" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -36159,7 +36221,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="56" t="s">
         <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -36839,11 +36901,11 @@
       </c>
     </row>
     <row r="109" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="59" t="s">
         <v>641</v>
       </c>
-      <c r="B109" s="53" t="s">
-        <v>642</v>
+      <c r="B109" s="52" t="s">
+        <v>672</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>123</v>
@@ -36907,10 +36969,10 @@
       </c>
     </row>
     <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="58" t="s">
+      <c r="A110" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="53" t="s">
         <v>662</v>
       </c>
       <c r="C110" s="32" t="s">
@@ -36975,7 +37037,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="58" t="s">
         <v>661</v>
       </c>
       <c r="B111" s="36" t="s">
@@ -37043,7 +37105,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="58" t="s">
         <v>668</v>
       </c>
       <c r="B112" s="36" t="s">
@@ -37111,7 +37173,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="59" t="s">
+      <c r="A113" s="58" t="s">
         <v>669</v>
       </c>
       <c r="B113" s="36" t="s">
@@ -37179,7 +37241,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="58" t="s">
         <v>670</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -37250,7 +37312,7 @@
       <c r="A115" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="54" t="s">
         <v>660</v>
       </c>
       <c r="C115" s="32" t="s">
@@ -37314,11 +37376,141 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
-    </row>
-    <row r="117" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
+    <row r="116" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V116" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="R117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="T117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="U117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="V117" s="19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
